--- a/Kafka指南.xlsx
+++ b/Kafka指南.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CC8F93A7-82D9-4024-9534-29EDEFAC1288}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Docker搭建" sheetId="1" r:id="rId1"/>
+    <sheet name="Docker搭建Kafka" sheetId="1" r:id="rId1"/>
+    <sheet name="命令" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>docker run -d --name zookeeper -p 2181:2181 -t wurstmeister/zookeeper</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,11 +66,59 @@
     <t>将修改好的kafka-server-start.sh拷贝到容器内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>KAFKA_ADVERTISED_LISTENERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外网访问ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">KAFKA_LISTENERS </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网访问ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAFKA_BROKER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broker id必须是唯一的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：./kafka-topics.sh --create --zookeeper 54.249.79.156:2181 --replication-factor 1 --partitions 1 --topic test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：./kafka-topics.sh --list --zookeeper 54.249.79.156:2181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例:  ./kafka-topics.sh --zookeeper 54.249.79.156:2181 --delete --topic test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,17 +178,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{09036ECC-0EE5-46B7-A2DF-E6D4A8069103}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -162,7 +241,13 @@
     <xdr:ext cx="15179797" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -217,13 +302,19 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4766241" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -278,13 +369,19 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7002943" cy="447943"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -357,7 +454,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -432,6 +529,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -467,6 +581,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -642,11 +773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -654,39 +785,63 @@
     <col min="1" max="1" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -696,4 +851,50 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B01B3F-BB9B-4A6D-B140-9EFF47D971E5}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Kafka指南.xlsx
+++ b/Kafka指南.xlsx
@@ -32,6 +32,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>将kafka内部的kafka-server-start.sh拷贝到宿主机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将修改好的kafka-server-start.sh拷贝到容器内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -47,21 +55,14 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>failed; error='Cannot allocate memory' (errno=12)）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将kafka内部的kafka-server-start.sh拷贝到宿主机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将修改好的kafka-server-start.sh拷贝到容器内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +97,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -646,7 +655,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -671,18 +680,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">

--- a/Kafka指南.xlsx
+++ b/Kafka指南.xlsx
@@ -32,14 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将kafka内部的kafka-server-start.sh拷贝到宿主机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将修改好的kafka-server-start.sh拷贝到容器内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -55,14 +47,21 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>failed; error='Cannot allocate memory' (errno=12)）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将kafka内部的kafka-server-start.sh拷贝到宿主机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将修改好的kafka-server-start.sh拷贝到容器内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,14 +96,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -655,7 +646,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -680,18 +671,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">

--- a/Kafka指南.xlsx
+++ b/Kafka指南.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Docker搭建" sheetId="1" r:id="rId1"/>
+    <sheet name="Docker搭建集群" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>docker run -d --name zookeeper -p 2181:2181 -t wurstmeister/zookeeper</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,10 +26,6 @@
   </si>
   <si>
     <t xml:space="preserve">启动kafka </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docker cp  /home/ec2-user/kafka-server-start.sh e1954049ae5c:/opt/kafka/bin/kafka-server-start.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,6 +59,14 @@
   </si>
   <si>
     <t>将修改好的kafka-server-start.sh拷贝到容器内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker cp  /home/ec2-user/kafka-server-start.sh CONTAINER_ID:/opt/kafka/bin/kafka-server-start.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建docker文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -671,23 +676,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -696,4 +701,23 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Kafka指南.xlsx
+++ b/Kafka指南.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8944A0F2-9665-4207-BBFE-3753C7B7CD06}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Docker搭建" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>docker run -d --name zookeeper -p 2181:2181 -t wurstmeister/zookeeper</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,11 +70,25 @@
     <t>构建docker文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>vim docker-compose.yml</t>
+  </si>
+  <si>
+    <t>如果已经有zookeeper了，则删除ZK相关构建内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> docker-compose up -d</t>
+  </si>
+  <si>
+    <t>启动kafka集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,8 +157,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{EFE1147E-9CCA-4CDD-A506-7AC8731C2791}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -167,7 +210,13 @@
     <xdr:ext cx="15179797" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -228,7 +277,13 @@
     <xdr:ext cx="4766241" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -289,7 +344,13 @@
     <xdr:ext cx="7002943" cy="447943"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -361,8 +422,424 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6193234" cy="6759671"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C59DA826-73D6-4815-ABB4-D034823948B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="647700"/>
+          <a:ext cx="6193234" cy="6759671"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>version: '2'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>services:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  zookeeper:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    image: wurstmeister/zookeeper   ## </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>镜像</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - "2181:2181"                 ## </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>对外暴露的端口号</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>kafka1:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    image: wurstmeister/kafka       ## </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>镜像</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>container_name: kafka1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - "9092:9092"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    environment:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      KAFKA_ADVERTISED_LISTENERS: PLAINTEXT://54.249.79.156:9092          ## </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>宿主机</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>IP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      KAFKA_ZOOKEEPER_CONNECT: 54.249.79.156:2181                         ## </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>卡夫卡运行是基于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>zookeeper</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>KAFKA_BROKER_ID: 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      KAFKA_LISTENERS: PLAINTEXT://0.0.0.0:9092</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  kafka2:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    image: wurstmeister/kafka       ## </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>镜像</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>container_name: kafka2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - "9093:9092"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    environment:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      KAFKA_ADVERTISED_LISTENERS: PLAINTEXT://54.249.79.156:9093          ## </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>宿主机</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>IP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      KAFKA_ZOOKEEPER_CONNECT: 54.249.79.156:2181                         ## </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>卡夫卡运行是基于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>zookeeper</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>KAFKA_BROKER_ID: 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      KAFKA_LISTENERS: PLAINTEXT://0.0.0.0:9092</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  kafka3:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    image: wurstmeister/kafka       ## </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>镜像</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>container_name: kafka3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - "9094:9092"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    environment:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      KAFKA_ADVERTISED_LISTENERS: PLAINTEXT://54.249.79.156:9094          ## </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>宿主机</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>IP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      KAFKA_ZOOKEEPER_CONNECT: 54.249.79.156:2181                         ## </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>卡夫卡运行是基于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>zookeeper</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>KAFKA_BROKER_ID: 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      KAFKA_LISTENERS: PLAINTEXT://0.0.0.0:9092</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -437,6 +914,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -472,6 +966,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -647,11 +1158,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -704,20 +1215,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>